--- a/Data_source/LCI_data/3_LCI_amine_based_sorbent.xlsx
+++ b/Data_source/LCI_data/3_LCI_amine_based_sorbent.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qiuya\Box\DAC LCA-IAM\YQ_work\Manuscript\Submission\Nature Communications Second Submission\Code and LCI Data\Data_source\LCI_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yqiu\Box\DAC LCA-IAM\YQ_work\Manuscript\Submission\Nature Communications Second Submission\Code and LCI Data\Data_source\LCI_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB86A09-59EA-47B6-8724-9402AFCDBA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Amine_based_sorbent" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -944,71 +943,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0341AF-7D66-4E98-8BC9-7761A262FCFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1019,23 +1018,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1115,12 +1114,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1713,12 +1712,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1">
-        <v>0.75753213367609251</v>
+        <v>-0.75753213367609296</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -1737,7 +1736,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>0.75753213367609251</v>
+        <v>-0.75753213367609296</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
@@ -1746,12 +1745,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>0.36</v>
+        <v>-0.36</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -1770,7 +1769,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>-0.36</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
@@ -1779,43 +1778,43 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
